--- a/server/storage/individual-template.xlsx
+++ b/server/storage/individual-template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\sms-qr\server\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7896C7-3F11-4A94-A349-93BB0744B57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF3E776-1CD3-459D-9CD4-85505BF8D3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="2505" windowWidth="18000" windowHeight="9270" xr2:uid="{8E0A1244-566C-4285-B8A1-3C25EEBF0295}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Attendance" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -173,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -317,40 +317,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -377,19 +351,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -518,6 +479,47 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -525,9 +527,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -538,9 +577,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -552,71 +589,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -630,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,21 +620,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -683,19 +655,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -722,91 +694,106 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1126,7 +1113,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:I3"/>
+      <selection activeCell="D3" sqref="D3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,64 +1128,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="52" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="56"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="48" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="62"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1217,24 +1204,24 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
@@ -1260,13 +1247,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="37"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="46"/>
       <c r="J8" s="27" t="s">
         <v>13</v>
       </c>
@@ -1276,12 +1263,12 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="44"/>
       <c r="J9" s="30" t="s">
         <v>14</v>
       </c>
@@ -1291,93 +1278,93 @@
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="25"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="25"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="45"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1430,10 +1417,12 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B5:H6"/>
     <mergeCell ref="B8:B9"/>
@@ -1442,9 +1431,7 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>

--- a/server/storage/individual-template.xlsx
+++ b/server/storage/individual-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\sms-qr\server\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF3E776-1CD3-459D-9CD4-85505BF8D3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802543B2-4109-41A6-9E1B-6FE3528588D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="18000" windowHeight="9270" xr2:uid="{8E0A1244-566C-4285-B8A1-3C25EEBF0295}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{8E0A1244-566C-4285-B8A1-3C25EEBF0295}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Name:</t>
   </si>
   <si>
-    <t>Role:</t>
-  </si>
-  <si>
     <t>Phone Number:</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>Generated By:</t>
   </si>
 </sst>
 </file>
@@ -631,6 +631,141 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,141 +795,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:I3"/>
+      <selection activeCell="L1" sqref="L1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,64 +1128,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="51" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
+      <c r="A3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="46"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1204,24 +1204,24 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
+      <c r="B5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
@@ -1247,219 +1247,181 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="46"/>
-      <c r="J8" s="27" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="45"/>
+      <c r="J8" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="33"/>
+      <c r="J9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="44"/>
-      <c r="J9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="44"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="44"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="44"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="44"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="26"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="45"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="60"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E22" s="24"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E23" s="12"/>
-      <c r="F23" s="16" t="s">
+      <c r="E23" s="57"/>
+      <c r="F23" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="62"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E24" s="58"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E25" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="17"/>
+      <c r="F25" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="62"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="21"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B5:H6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="B18:B19"/>
@@ -1476,11 +1438,49 @@
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="F25:G26"/>
-    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
